--- a/static/Digium_Price_List.xlsx
+++ b/static/Digium_Price_List.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14740" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1498,37 +1506,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1537,90 +1553,395 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E250"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.29"/>
-    <col customWidth="1" min="2" max="2" width="99.0"/>
-    <col customWidth="1" min="3" max="3" width="16.29"/>
-    <col customWidth="1" min="4" max="4" width="9.0"/>
-    <col customWidth="1" min="5" max="5" width="10.29"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="99" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1637,7 +1958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1645,17 +1966,17 @@
         <v>6</v>
       </c>
       <c r="C2" s="6">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="D2" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E2" s="8" t="str">
-        <f t="shared" ref="E2:E250" si="1">(1-D2)*C2</f>
-        <v>$166.25</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0.03</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E250" si="0">(1-D2)*C2</f>
+        <v>169.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1663,17 +1984,17 @@
         <v>8</v>
       </c>
       <c r="C3" s="6">
-        <v>410.0</v>
+        <v>410</v>
       </c>
       <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$389.50</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0.03</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" si="0"/>
+        <v>397.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1684,14 +2005,14 @@
         <v>350.8</v>
       </c>
       <c r="D4" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$333.26</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.03</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="0"/>
+        <v>340.27600000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1699,17 +2020,17 @@
         <v>12</v>
       </c>
       <c r="C5" s="6">
-        <v>585.8</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="D5" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$556.51</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0.03</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>568.22599999999989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1717,17 +2038,17 @@
         <v>14</v>
       </c>
       <c r="C6" s="6">
-        <v>579.8</v>
+        <v>579.79999999999995</v>
       </c>
       <c r="D6" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E6" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$550.81</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>562.40599999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1738,14 +2059,14 @@
         <v>338.8</v>
       </c>
       <c r="D7" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$321.86</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0.03</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>328.63600000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1753,17 +2074,17 @@
         <v>18</v>
       </c>
       <c r="C8" s="6">
-        <v>573.8</v>
+        <v>573.79999999999995</v>
       </c>
       <c r="D8" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$545.11</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0.03</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>556.5859999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1771,17 +2092,17 @@
         <v>20</v>
       </c>
       <c r="C9" s="6">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="D9" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$228.00</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0.03</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>232.79999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1789,17 +2110,17 @@
         <v>22</v>
       </c>
       <c r="C10" s="6">
-        <v>475.0</v>
+        <v>475</v>
       </c>
       <c r="D10" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$451.25</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0.03</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>460.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1810,14 +2131,14 @@
         <v>415.8</v>
       </c>
       <c r="D11" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E11" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$395.01</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0.03</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>403.32600000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1825,17 +2146,17 @@
         <v>26</v>
       </c>
       <c r="C12" s="6">
-        <v>650.8</v>
+        <v>650.79999999999995</v>
       </c>
       <c r="D12" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E12" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$618.26</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0.03</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>631.27599999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1843,17 +2164,17 @@
         <v>28</v>
       </c>
       <c r="C13" s="6">
-        <v>644.8</v>
+        <v>644.79999999999995</v>
       </c>
       <c r="D13" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E13" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$612.56</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0.03</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>625.4559999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1864,14 +2185,14 @@
         <v>403.8</v>
       </c>
       <c r="D14" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$383.61</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0.03</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>391.68599999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1879,17 +2200,17 @@
         <v>32</v>
       </c>
       <c r="C15" s="6">
-        <v>638.8</v>
+        <v>638.79999999999995</v>
       </c>
       <c r="D15" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E15" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$606.86</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0.03</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>619.63599999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
@@ -1897,17 +2218,17 @@
         <v>34</v>
       </c>
       <c r="C16" s="6">
-        <v>255.0</v>
+        <v>255</v>
       </c>
       <c r="D16" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E16" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$242.25</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0.03</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>247.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1915,17 +2236,17 @@
         <v>36</v>
       </c>
       <c r="C17" s="6">
-        <v>490.0</v>
+        <v>490</v>
       </c>
       <c r="D17" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E17" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$465.50</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0.03</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>475.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
@@ -1933,17 +2254,17 @@
         <v>38</v>
       </c>
       <c r="C18" s="6">
-        <v>605.0</v>
+        <v>605</v>
       </c>
       <c r="D18" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E18" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$574.75</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0.03</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>586.85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -1951,17 +2272,17 @@
         <v>40</v>
       </c>
       <c r="C19" s="6">
-        <v>840.0</v>
+        <v>840</v>
       </c>
       <c r="D19" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E19" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$798.00</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0.03</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>814.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>41</v>
       </c>
@@ -1969,17 +2290,17 @@
         <v>42</v>
       </c>
       <c r="C20" s="6">
-        <v>860.0</v>
+        <v>860</v>
       </c>
       <c r="D20" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E20" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$817.00</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0.03</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>834.19999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -1987,17 +2308,17 @@
         <v>44</v>
       </c>
       <c r="C21" s="6">
-        <v>645.0</v>
+        <v>645</v>
       </c>
       <c r="D21" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E21" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$612.75</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0.03</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>625.65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
@@ -2005,17 +2326,17 @@
         <v>46</v>
       </c>
       <c r="C22" s="6">
-        <v>880.0</v>
+        <v>880</v>
       </c>
       <c r="D22" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E22" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$836.00</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0.03</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>853.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>47</v>
       </c>
@@ -2023,17 +2344,17 @@
         <v>48</v>
       </c>
       <c r="C23" s="6">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="D23" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E23" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$299.25</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>0.03</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>305.55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>49</v>
       </c>
@@ -2041,17 +2362,17 @@
         <v>50</v>
       </c>
       <c r="C24" s="6">
-        <v>550.0</v>
+        <v>550</v>
       </c>
       <c r="D24" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E24" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$522.50</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>0.03</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>533.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
@@ -2059,17 +2380,17 @@
         <v>52</v>
       </c>
       <c r="C25" s="6">
-        <v>665.0</v>
+        <v>665</v>
       </c>
       <c r="D25" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E25" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$631.75</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>0.03</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>645.04999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>53</v>
       </c>
@@ -2077,17 +2398,17 @@
         <v>54</v>
       </c>
       <c r="C26" s="6">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="D26" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E26" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$855.00</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0.03</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>873</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
@@ -2095,17 +2416,17 @@
         <v>56</v>
       </c>
       <c r="C27" s="6">
-        <v>920.0</v>
+        <v>920</v>
       </c>
       <c r="D27" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E27" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$874.00</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>0.03</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>892.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
@@ -2113,17 +2434,17 @@
         <v>58</v>
       </c>
       <c r="C28" s="6">
-        <v>705.0</v>
+        <v>705</v>
       </c>
       <c r="D28" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E28" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$669.75</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>0.03</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="0"/>
+        <v>683.85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -2131,17 +2452,17 @@
         <v>60</v>
       </c>
       <c r="C29" s="6">
-        <v>940.0</v>
+        <v>940</v>
       </c>
       <c r="D29" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E29" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$893.00</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>0.03</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" si="0"/>
+        <v>911.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>61</v>
       </c>
@@ -2149,17 +2470,17 @@
         <v>62</v>
       </c>
       <c r="C30" s="6">
-        <v>625.0</v>
+        <v>625</v>
       </c>
       <c r="D30" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E30" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$593.75</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0.03</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="0"/>
+        <v>606.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>63</v>
       </c>
@@ -2167,17 +2488,17 @@
         <v>64</v>
       </c>
       <c r="C31" s="6">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="D31" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E31" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$294.50</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0.03</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="0"/>
+        <v>300.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>65</v>
       </c>
@@ -2185,17 +2506,17 @@
         <v>66</v>
       </c>
       <c r="C32" s="6">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="D32" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E32" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$218.50</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>0.03</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="0"/>
+        <v>223.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>67</v>
       </c>
@@ -2203,17 +2524,17 @@
         <v>68</v>
       </c>
       <c r="C33" s="6">
-        <v>595.0</v>
+        <v>595</v>
       </c>
       <c r="D33" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E33" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$565.25</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>0.03</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="0"/>
+        <v>577.15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
@@ -2221,17 +2542,17 @@
         <v>70</v>
       </c>
       <c r="C34" s="6">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="D34" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$342.00</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>0.03</v>
+      </c>
+      <c r="E34" s="8">
+        <f t="shared" si="0"/>
+        <v>349.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>71</v>
       </c>
@@ -2239,17 +2560,17 @@
         <v>72</v>
       </c>
       <c r="C35" s="6">
-        <v>1410.0</v>
+        <v>1410</v>
       </c>
       <c r="D35" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,339.50</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>0.03</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" si="0"/>
+        <v>1367.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>73</v>
       </c>
@@ -2257,17 +2578,17 @@
         <v>74</v>
       </c>
       <c r="C36" s="6">
-        <v>1645.0</v>
+        <v>1645</v>
       </c>
       <c r="D36" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,562.75</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>0.03</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="0"/>
+        <v>1595.6499999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>75</v>
       </c>
@@ -2275,17 +2596,17 @@
         <v>76</v>
       </c>
       <c r="C37" s="6">
-        <v>1530.0</v>
+        <v>1530</v>
       </c>
       <c r="D37" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E37" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,453.50</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>0.03</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" si="0"/>
+        <v>1484.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>77</v>
       </c>
@@ -2293,17 +2614,17 @@
         <v>78</v>
       </c>
       <c r="C38" s="6">
-        <v>1765.0</v>
+        <v>1765</v>
       </c>
       <c r="D38" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E38" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,676.75</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>0.03</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="0"/>
+        <v>1712.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>79</v>
       </c>
@@ -2311,17 +2632,17 @@
         <v>80</v>
       </c>
       <c r="C39" s="6">
-        <v>2495.0</v>
+        <v>2495</v>
       </c>
       <c r="D39" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E39" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$2,370.25</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>0.03</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" si="0"/>
+        <v>2420.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>81</v>
       </c>
@@ -2329,17 +2650,17 @@
         <v>82</v>
       </c>
       <c r="C40" s="6">
-        <v>4040.0</v>
+        <v>4040</v>
       </c>
       <c r="D40" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E40" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$3,838.00</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>0.03</v>
+      </c>
+      <c r="E40" s="8">
+        <f t="shared" si="0"/>
+        <v>3918.7999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>83</v>
       </c>
@@ -2347,17 +2668,17 @@
         <v>84</v>
       </c>
       <c r="C41" s="6">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="D41" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E41" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$142.50</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>0.03</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" si="0"/>
+        <v>145.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>85</v>
       </c>
@@ -2365,17 +2686,17 @@
         <v>86</v>
       </c>
       <c r="C42" s="6">
-        <v>4995.0</v>
+        <v>4995</v>
       </c>
       <c r="D42" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E42" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$4,745.25</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>0.03</v>
+      </c>
+      <c r="E42" s="8">
+        <f t="shared" si="0"/>
+        <v>4845.1499999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>87</v>
       </c>
@@ -2383,17 +2704,17 @@
         <v>88</v>
       </c>
       <c r="C43" s="6">
-        <v>5850.0</v>
+        <v>5850</v>
       </c>
       <c r="D43" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E43" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$5,557.50</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>0.03</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" si="0"/>
+        <v>5674.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>89</v>
       </c>
@@ -2401,17 +2722,17 @@
         <v>90</v>
       </c>
       <c r="C44" s="6">
-        <v>6445.0</v>
+        <v>6445</v>
       </c>
       <c r="D44" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E44" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$6,122.75</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>0.03</v>
+      </c>
+      <c r="E44" s="8">
+        <f t="shared" si="0"/>
+        <v>6251.65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>91</v>
       </c>
@@ -2419,17 +2740,17 @@
         <v>92</v>
       </c>
       <c r="C45" s="6">
-        <v>7990.0</v>
+        <v>7990</v>
       </c>
       <c r="D45" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E45" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$7,590.50</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>0.03</v>
+      </c>
+      <c r="E45" s="8">
+        <f t="shared" si="0"/>
+        <v>7750.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>93</v>
       </c>
@@ -2437,17 +2758,17 @@
         <v>94</v>
       </c>
       <c r="C46" s="6">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="D46" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E46" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$94.05</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>0.03</v>
+      </c>
+      <c r="E46" s="8">
+        <f t="shared" si="0"/>
+        <v>96.03</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>95</v>
       </c>
@@ -2455,17 +2776,17 @@
         <v>96</v>
       </c>
       <c r="C47" s="6">
-        <v>8305.0</v>
+        <v>8305</v>
       </c>
       <c r="D47" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E47" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$7,889.75</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>0.03</v>
+      </c>
+      <c r="E47" s="8">
+        <f t="shared" si="0"/>
+        <v>8055.8499999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>97</v>
       </c>
@@ -2473,17 +2794,17 @@
         <v>98</v>
       </c>
       <c r="C48" s="6">
-        <v>9850.0</v>
+        <v>9850</v>
       </c>
       <c r="D48" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E48" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$9,357.50</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>0.03</v>
+      </c>
+      <c r="E48" s="8">
+        <f t="shared" si="0"/>
+        <v>9554.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>99</v>
       </c>
@@ -2491,17 +2812,17 @@
         <v>100</v>
       </c>
       <c r="C49" s="6">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="D49" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E49" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$427.50</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>0.03</v>
+      </c>
+      <c r="E49" s="8">
+        <f t="shared" si="0"/>
+        <v>436.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>101</v>
       </c>
@@ -2509,17 +2830,17 @@
         <v>102</v>
       </c>
       <c r="C50" s="6">
-        <v>11430.0</v>
+        <v>11430</v>
       </c>
       <c r="D50" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E50" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$10,858.50</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>0.03</v>
+      </c>
+      <c r="E50" s="8">
+        <f t="shared" si="0"/>
+        <v>11087.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>103</v>
       </c>
@@ -2527,17 +2848,17 @@
         <v>104</v>
       </c>
       <c r="C51" s="6">
-        <v>12975.0</v>
+        <v>12975</v>
       </c>
       <c r="D51" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E51" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$12,326.25</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>0.03</v>
+      </c>
+      <c r="E51" s="8">
+        <f t="shared" si="0"/>
+        <v>12585.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>105</v>
       </c>
@@ -2545,17 +2866,17 @@
         <v>106</v>
       </c>
       <c r="C52" s="6">
-        <v>799.0</v>
+        <v>799</v>
       </c>
       <c r="D52" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E52" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$759.05</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>0.03</v>
+      </c>
+      <c r="E52" s="8">
+        <f t="shared" si="0"/>
+        <v>775.03</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>107</v>
       </c>
@@ -2563,17 +2884,17 @@
         <v>108</v>
       </c>
       <c r="C53" s="6">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="D53" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E53" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$237.50</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>0.03</v>
+      </c>
+      <c r="E53" s="8">
+        <f t="shared" si="0"/>
+        <v>242.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>109</v>
       </c>
@@ -2581,17 +2902,17 @@
         <v>110</v>
       </c>
       <c r="C54" s="6">
-        <v>1095.0</v>
+        <v>1095</v>
       </c>
       <c r="D54" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E54" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,040.25</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>0.03</v>
+      </c>
+      <c r="E54" s="8">
+        <f t="shared" si="0"/>
+        <v>1062.1499999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>111</v>
       </c>
@@ -2599,17 +2920,17 @@
         <v>112</v>
       </c>
       <c r="C55" s="6">
-        <v>3140.0</v>
+        <v>3140</v>
       </c>
       <c r="D55" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E55" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$2,983.00</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>0.03</v>
+      </c>
+      <c r="E55" s="8">
+        <f t="shared" si="0"/>
+        <v>3045.7999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>113</v>
       </c>
@@ -2617,17 +2938,17 @@
         <v>114</v>
       </c>
       <c r="C56" s="6">
-        <v>1195.0</v>
+        <v>1195</v>
       </c>
       <c r="D56" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E56" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,135.25</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>0.03</v>
+      </c>
+      <c r="E56" s="8">
+        <f t="shared" si="0"/>
+        <v>1159.1499999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>115</v>
       </c>
@@ -2635,17 +2956,17 @@
         <v>116</v>
       </c>
       <c r="C57" s="6">
-        <v>1995.0</v>
+        <v>1995</v>
       </c>
       <c r="D57" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E57" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,895.25</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>0.03</v>
+      </c>
+      <c r="E57" s="8">
+        <f t="shared" si="0"/>
+        <v>1935.1499999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>117</v>
       </c>
@@ -2653,17 +2974,17 @@
         <v>118</v>
       </c>
       <c r="C58" s="6">
-        <v>2995.0</v>
+        <v>2995</v>
       </c>
       <c r="D58" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E58" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$2,845.25</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>0.03</v>
+      </c>
+      <c r="E58" s="8">
+        <f t="shared" si="0"/>
+        <v>2905.15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>119</v>
       </c>
@@ -2671,17 +2992,17 @@
         <v>120</v>
       </c>
       <c r="C59" s="6">
-        <v>3995.0</v>
+        <v>3995</v>
       </c>
       <c r="D59" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E59" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$3,795.25</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>0.03</v>
+      </c>
+      <c r="E59" s="8">
+        <f t="shared" si="0"/>
+        <v>3875.15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>121</v>
       </c>
@@ -2689,17 +3010,17 @@
         <v>122</v>
       </c>
       <c r="C60" s="6">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D60" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E60" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$71.25</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>0.03</v>
+      </c>
+      <c r="E60" s="8">
+        <f t="shared" si="0"/>
+        <v>72.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>123</v>
       </c>
@@ -2707,17 +3028,17 @@
         <v>124</v>
       </c>
       <c r="C61" s="6">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D61" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E61" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$95.00</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>0.03</v>
+      </c>
+      <c r="E61" s="8">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>125</v>
       </c>
@@ -2725,17 +3046,17 @@
         <v>126</v>
       </c>
       <c r="C62" s="6">
-        <v>995.0</v>
+        <v>995</v>
       </c>
       <c r="D62" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E62" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$945.25</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>0.03</v>
+      </c>
+      <c r="E62" s="8">
+        <f t="shared" si="0"/>
+        <v>965.15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>127</v>
       </c>
@@ -2743,17 +3064,17 @@
         <v>128</v>
       </c>
       <c r="C63" s="6">
-        <v>995.0</v>
+        <v>995</v>
       </c>
       <c r="D63" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E63" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$945.25</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>0.03</v>
+      </c>
+      <c r="E63" s="8">
+        <f t="shared" si="0"/>
+        <v>965.15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>129</v>
       </c>
@@ -2761,17 +3082,17 @@
         <v>130</v>
       </c>
       <c r="C64" s="6">
-        <v>40.95</v>
+        <v>40.950000000000003</v>
       </c>
       <c r="D64" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E64" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$38.90</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>0.03</v>
+      </c>
+      <c r="E64" s="8">
+        <f t="shared" si="0"/>
+        <v>39.721499999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>131</v>
       </c>
@@ -2779,17 +3100,17 @@
         <v>132</v>
       </c>
       <c r="C65" s="6">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="D65" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E65" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$185.25</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>0.03</v>
+      </c>
+      <c r="E65" s="8">
+        <f t="shared" si="0"/>
+        <v>189.15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>133</v>
       </c>
@@ -2797,17 +3118,17 @@
         <v>134</v>
       </c>
       <c r="C66" s="6">
-        <v>2745.0</v>
+        <v>2745</v>
       </c>
       <c r="D66" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E66" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$2,196.00</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>0.18</v>
+      </c>
+      <c r="E66" s="8">
+        <f t="shared" si="0"/>
+        <v>2250.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>135</v>
       </c>
@@ -2815,17 +3136,17 @@
         <v>136</v>
       </c>
       <c r="C67" s="6">
-        <v>2765.0</v>
+        <v>2765</v>
       </c>
       <c r="D67" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E67" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$2,212.00</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>0.18</v>
+      </c>
+      <c r="E67" s="8">
+        <f t="shared" si="0"/>
+        <v>2267.3000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>137</v>
       </c>
@@ -2833,17 +3154,17 @@
         <v>138</v>
       </c>
       <c r="C68" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D68" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E68" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$24.00</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>0.18</v>
+      </c>
+      <c r="E68" s="8">
+        <f t="shared" si="0"/>
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>139</v>
       </c>
@@ -2851,17 +3172,17 @@
         <v>140</v>
       </c>
       <c r="C69" s="6">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="D69" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E69" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$2,400.00</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>0.18</v>
+      </c>
+      <c r="E69" s="8">
+        <f t="shared" si="0"/>
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>141</v>
       </c>
@@ -2869,17 +3190,17 @@
         <v>142</v>
       </c>
       <c r="C70" s="6">
-        <v>750.0</v>
+        <v>750</v>
       </c>
       <c r="D70" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E70" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$600.00</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>0.18</v>
+      </c>
+      <c r="E70" s="8">
+        <f t="shared" si="0"/>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>143</v>
       </c>
@@ -2887,17 +3208,17 @@
         <v>144</v>
       </c>
       <c r="C71" s="6">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="D71" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E71" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$120.00</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>0.18</v>
+      </c>
+      <c r="E71" s="8">
+        <f t="shared" si="0"/>
+        <v>123.00000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>145</v>
       </c>
@@ -2905,17 +3226,17 @@
         <v>146</v>
       </c>
       <c r="C72" s="6">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="D72" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E72" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$56.00</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>0.18</v>
+      </c>
+      <c r="E72" s="8">
+        <f t="shared" si="0"/>
+        <v>57.400000000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1">
       <c r="A73" s="4" t="s">
         <v>147</v>
       </c>
@@ -2923,17 +3244,17 @@
         <v>148</v>
       </c>
       <c r="C73" s="6">
-        <v>7000.0</v>
+        <v>7000</v>
       </c>
       <c r="D73" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E73" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$5,600.00</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>0.18</v>
+      </c>
+      <c r="E73" s="8">
+        <f t="shared" si="0"/>
+        <v>5740</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>149</v>
       </c>
@@ -2941,17 +3262,17 @@
         <v>150</v>
       </c>
       <c r="C74" s="6">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="D74" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E74" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,200.00</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>0.18</v>
+      </c>
+      <c r="E74" s="8">
+        <f t="shared" si="0"/>
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1">
       <c r="A75" s="4" t="s">
         <v>151</v>
       </c>
@@ -2959,17 +3280,17 @@
         <v>152</v>
       </c>
       <c r="C75" s="6">
-        <v>2700.0</v>
+        <v>2700</v>
       </c>
       <c r="D75" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E75" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$2,160.00</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>0.18</v>
+      </c>
+      <c r="E75" s="8">
+        <f t="shared" si="0"/>
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1">
       <c r="A76" s="4" t="s">
         <v>153</v>
       </c>
@@ -2977,17 +3298,17 @@
         <v>154</v>
       </c>
       <c r="C76" s="6">
-        <v>4500.0</v>
+        <v>4500</v>
       </c>
       <c r="D76" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E76" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$3,600.00</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>0.18</v>
+      </c>
+      <c r="E76" s="8">
+        <f t="shared" si="0"/>
+        <v>3690.0000000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1">
       <c r="A77" s="4" t="s">
         <v>155</v>
       </c>
@@ -2995,17 +3316,17 @@
         <v>156</v>
       </c>
       <c r="C77" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D77" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E77" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$12.00</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>0.18</v>
+      </c>
+      <c r="E77" s="8">
+        <f t="shared" si="0"/>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1">
       <c r="A78" s="4" t="s">
         <v>157</v>
       </c>
@@ -3013,17 +3334,17 @@
         <v>158</v>
       </c>
       <c r="C78" s="6">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="D78" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E78" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$21.60</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>0.18</v>
+      </c>
+      <c r="E78" s="8">
+        <f t="shared" si="0"/>
+        <v>22.14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1">
       <c r="A79" s="4" t="s">
         <v>159</v>
       </c>
@@ -3031,17 +3352,17 @@
         <v>160</v>
       </c>
       <c r="C79" s="6">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="D79" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E79" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$36.00</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>0.18</v>
+      </c>
+      <c r="E79" s="8">
+        <f t="shared" si="0"/>
+        <v>36.900000000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>161</v>
       </c>
@@ -3049,17 +3370,17 @@
         <v>162</v>
       </c>
       <c r="C80" s="6">
-        <v>1750.0</v>
+        <v>1750</v>
       </c>
       <c r="D80" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E80" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,400.00</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>0.18</v>
+      </c>
+      <c r="E80" s="8">
+        <f t="shared" si="0"/>
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1">
       <c r="A81" s="4" t="s">
         <v>163</v>
       </c>
@@ -3067,17 +3388,17 @@
         <v>164</v>
       </c>
       <c r="C81" s="6">
-        <v>375.0</v>
+        <v>375</v>
       </c>
       <c r="D81" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E81" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$300.00</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>0.18</v>
+      </c>
+      <c r="E81" s="8">
+        <f t="shared" si="0"/>
+        <v>307.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1">
       <c r="A82" s="4" t="s">
         <v>165</v>
       </c>
@@ -3085,17 +3406,17 @@
         <v>166</v>
       </c>
       <c r="C82" s="6">
-        <v>675.0</v>
+        <v>675</v>
       </c>
       <c r="D82" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E82" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$540.00</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>0.18</v>
+      </c>
+      <c r="E82" s="8">
+        <f t="shared" si="0"/>
+        <v>553.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>167</v>
       </c>
@@ -3103,17 +3424,17 @@
         <v>168</v>
       </c>
       <c r="C83" s="6">
-        <v>1125.0</v>
+        <v>1125</v>
       </c>
       <c r="D83" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E83" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$900.00</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>0.18</v>
+      </c>
+      <c r="E83" s="8">
+        <f t="shared" si="0"/>
+        <v>922.50000000000011</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>169</v>
       </c>
@@ -3121,17 +3442,17 @@
         <v>170</v>
       </c>
       <c r="C84" s="6">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="D84" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E84" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$280.00</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>0.18</v>
+      </c>
+      <c r="E84" s="8">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>171</v>
       </c>
@@ -3139,17 +3460,17 @@
         <v>172</v>
       </c>
       <c r="C85" s="6">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D85" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E85" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$60.00</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>0.18</v>
+      </c>
+      <c r="E85" s="8">
+        <f t="shared" si="0"/>
+        <v>61.500000000000007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1">
       <c r="A86" s="4" t="s">
         <v>173</v>
       </c>
@@ -3157,17 +3478,17 @@
         <v>174</v>
       </c>
       <c r="C86" s="6">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="D86" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E86" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$108.00</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>0.18</v>
+      </c>
+      <c r="E86" s="8">
+        <f t="shared" si="0"/>
+        <v>110.7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>175</v>
       </c>
@@ -3175,17 +3496,17 @@
         <v>176</v>
       </c>
       <c r="C87" s="6">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="D87" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E87" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$180.00</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>0.18</v>
+      </c>
+      <c r="E87" s="8">
+        <f t="shared" si="0"/>
+        <v>184.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1">
       <c r="A88" s="4" t="s">
         <v>177</v>
       </c>
@@ -3193,17 +3514,17 @@
         <v>178</v>
       </c>
       <c r="C88" s="6">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="D88" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E88" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$40.00</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>0.18</v>
+      </c>
+      <c r="E88" s="8">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1">
       <c r="A89" s="4" t="s">
         <v>179</v>
       </c>
@@ -3211,17 +3532,17 @@
         <v>180</v>
       </c>
       <c r="C89" s="6">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="D89" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E89" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$40.00</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>0.18</v>
+      </c>
+      <c r="E89" s="8">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>181</v>
       </c>
@@ -3229,17 +3550,17 @@
         <v>182</v>
       </c>
       <c r="C90" s="6">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="D90" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E90" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$4,000.00</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>0.18</v>
+      </c>
+      <c r="E90" s="8">
+        <f t="shared" si="0"/>
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1">
       <c r="A91" s="4" t="s">
         <v>183</v>
       </c>
@@ -3247,17 +3568,17 @@
         <v>184</v>
       </c>
       <c r="C91" s="6">
-        <v>1250.0</v>
+        <v>1250</v>
       </c>
       <c r="D91" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E91" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,000.00</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>0.18</v>
+      </c>
+      <c r="E91" s="8">
+        <f t="shared" si="0"/>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>185</v>
       </c>
@@ -3265,17 +3586,17 @@
         <v>186</v>
       </c>
       <c r="C92" s="6">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="D92" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E92" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$200.00</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>0.18</v>
+      </c>
+      <c r="E92" s="8">
+        <f t="shared" si="0"/>
+        <v>205.00000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1">
       <c r="A93" s="4" t="s">
         <v>187</v>
       </c>
@@ -3283,17 +3604,17 @@
         <v>188</v>
       </c>
       <c r="C93" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D93" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E93" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$24.00</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>0.18</v>
+      </c>
+      <c r="E93" s="8">
+        <f t="shared" si="0"/>
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>189</v>
       </c>
@@ -3301,17 +3622,17 @@
         <v>190</v>
       </c>
       <c r="C94" s="6">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="D94" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E94" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$2,400.00</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>0.18</v>
+      </c>
+      <c r="E94" s="8">
+        <f t="shared" si="0"/>
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>191</v>
       </c>
@@ -3319,17 +3640,17 @@
         <v>192</v>
       </c>
       <c r="C95" s="6">
-        <v>750.0</v>
+        <v>750</v>
       </c>
       <c r="D95" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E95" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$600.00</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>0.18</v>
+      </c>
+      <c r="E95" s="8">
+        <f t="shared" si="0"/>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1">
       <c r="A96" s="4" t="s">
         <v>193</v>
       </c>
@@ -3337,17 +3658,17 @@
         <v>194</v>
       </c>
       <c r="C96" s="6">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="D96" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E96" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$120.00</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>0.18</v>
+      </c>
+      <c r="E96" s="8">
+        <f t="shared" si="0"/>
+        <v>123.00000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>195</v>
       </c>
@@ -3355,17 +3676,17 @@
         <v>196</v>
       </c>
       <c r="C97" s="6">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D97" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E97" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$80.00</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>0.18</v>
+      </c>
+      <c r="E97" s="8">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1">
       <c r="A98" s="4" t="s">
         <v>197</v>
       </c>
@@ -3373,17 +3694,17 @@
         <v>198</v>
       </c>
       <c r="C98" s="6">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="D98" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E98" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$8,000.00</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>0.18</v>
+      </c>
+      <c r="E98" s="8">
+        <f t="shared" si="0"/>
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1">
       <c r="A99" s="4" t="s">
         <v>199</v>
       </c>
@@ -3391,17 +3712,17 @@
         <v>200</v>
       </c>
       <c r="C99" s="6">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="D99" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E99" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$2,000.00</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>0.18</v>
+      </c>
+      <c r="E99" s="8">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1">
       <c r="A100" s="4" t="s">
         <v>201</v>
       </c>
@@ -3409,17 +3730,17 @@
         <v>202</v>
       </c>
       <c r="C100" s="6">
-        <v>4500.0</v>
+        <v>4500</v>
       </c>
       <c r="D100" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E100" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$3,600.00</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>0.18</v>
+      </c>
+      <c r="E100" s="8">
+        <f t="shared" si="0"/>
+        <v>3690.0000000000005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1">
       <c r="A101" s="4" t="s">
         <v>203</v>
       </c>
@@ -3427,17 +3748,17 @@
         <v>204</v>
       </c>
       <c r="C101" s="6">
-        <v>7500.0</v>
+        <v>7500</v>
       </c>
       <c r="D101" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E101" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$6,000.00</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>0.18</v>
+      </c>
+      <c r="E101" s="8">
+        <f t="shared" si="0"/>
+        <v>6150.0000000000009</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>205</v>
       </c>
@@ -3445,17 +3766,17 @@
         <v>206</v>
       </c>
       <c r="C102" s="6">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="D102" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E102" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$20.00</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>0.18</v>
+      </c>
+      <c r="E102" s="8">
+        <f t="shared" si="0"/>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1">
       <c r="A103" s="4" t="s">
         <v>207</v>
       </c>
@@ -3463,17 +3784,17 @@
         <v>208</v>
       </c>
       <c r="C103" s="6">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="D103" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E103" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$36.00</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>0.18</v>
+      </c>
+      <c r="E103" s="8">
+        <f t="shared" si="0"/>
+        <v>36.900000000000006</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1">
       <c r="A104" s="4" t="s">
         <v>209</v>
       </c>
@@ -3481,17 +3802,17 @@
         <v>210</v>
       </c>
       <c r="C104" s="6">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D104" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E104" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$60.00</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>0.18</v>
+      </c>
+      <c r="E104" s="8">
+        <f t="shared" si="0"/>
+        <v>61.500000000000007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" customHeight="1">
       <c r="A105" s="4" t="s">
         <v>211</v>
       </c>
@@ -3499,17 +3820,17 @@
         <v>212</v>
       </c>
       <c r="C105" s="6">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="D105" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E105" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$2,000.00</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>0.18</v>
+      </c>
+      <c r="E105" s="8">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1">
       <c r="A106" s="4" t="s">
         <v>213</v>
       </c>
@@ -3517,17 +3838,17 @@
         <v>214</v>
       </c>
       <c r="C106" s="6">
-        <v>625.0</v>
+        <v>625</v>
       </c>
       <c r="D106" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E106" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$500.00</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>0.18</v>
+      </c>
+      <c r="E106" s="8">
+        <f t="shared" si="0"/>
+        <v>512.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" customHeight="1">
       <c r="A107" s="4" t="s">
         <v>215</v>
       </c>
@@ -3535,17 +3856,17 @@
         <v>216</v>
       </c>
       <c r="C107" s="6">
-        <v>1125.0</v>
+        <v>1125</v>
       </c>
       <c r="D107" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E107" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$900.00</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>0.18</v>
+      </c>
+      <c r="E107" s="8">
+        <f t="shared" si="0"/>
+        <v>922.50000000000011</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" customHeight="1">
       <c r="A108" s="4" t="s">
         <v>217</v>
       </c>
@@ -3553,17 +3874,17 @@
         <v>218</v>
       </c>
       <c r="C108" s="6">
-        <v>1875.0</v>
+        <v>1875</v>
       </c>
       <c r="D108" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E108" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,500.00</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>0.18</v>
+      </c>
+      <c r="E108" s="8">
+        <f t="shared" si="0"/>
+        <v>1537.5000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" customHeight="1">
       <c r="A109" s="4" t="s">
         <v>219</v>
       </c>
@@ -3571,17 +3892,17 @@
         <v>220</v>
       </c>
       <c r="C109" s="6">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="D109" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E109" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$400.00</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>0.18</v>
+      </c>
+      <c r="E109" s="8">
+        <f t="shared" si="0"/>
+        <v>410.00000000000006</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" customHeight="1">
       <c r="A110" s="4" t="s">
         <v>221</v>
       </c>
@@ -3589,17 +3910,17 @@
         <v>222</v>
       </c>
       <c r="C110" s="6">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="D110" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E110" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$100.00</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>0.18</v>
+      </c>
+      <c r="E110" s="8">
+        <f t="shared" si="0"/>
+        <v>102.50000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" customHeight="1">
       <c r="A111" s="4" t="s">
         <v>223</v>
       </c>
@@ -3607,17 +3928,17 @@
         <v>224</v>
       </c>
       <c r="C111" s="6">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="D111" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E111" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$180.00</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>0.18</v>
+      </c>
+      <c r="E111" s="8">
+        <f t="shared" si="0"/>
+        <v>184.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" customHeight="1">
       <c r="A112" s="4" t="s">
         <v>225</v>
       </c>
@@ -3625,17 +3946,17 @@
         <v>226</v>
       </c>
       <c r="C112" s="6">
-        <v>375.0</v>
+        <v>375</v>
       </c>
       <c r="D112" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E112" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$300.00</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>0.18</v>
+      </c>
+      <c r="E112" s="8">
+        <f t="shared" si="0"/>
+        <v>307.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" customHeight="1">
       <c r="A113" s="4" t="s">
         <v>227</v>
       </c>
@@ -3643,17 +3964,17 @@
         <v>228</v>
       </c>
       <c r="C113" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="D113" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E113" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$16.00</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>0.18</v>
+      </c>
+      <c r="E113" s="8">
+        <f t="shared" si="0"/>
+        <v>16.400000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.75" customHeight="1">
       <c r="A114" s="4" t="s">
         <v>229</v>
       </c>
@@ -3661,17 +3982,17 @@
         <v>230</v>
       </c>
       <c r="C114" s="6">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="D114" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E114" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$40.00</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>0.18</v>
+      </c>
+      <c r="E114" s="8">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" customHeight="1">
       <c r="A115" s="4" t="s">
         <v>231</v>
       </c>
@@ -3679,17 +4000,17 @@
         <v>232</v>
       </c>
       <c r="C115" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D115" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E115" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$8.00</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>0.18</v>
+      </c>
+      <c r="E115" s="8">
+        <f t="shared" si="0"/>
+        <v>8.2000000000000011</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.75" customHeight="1">
       <c r="A116" s="4" t="s">
         <v>233</v>
       </c>
@@ -3697,17 +4018,17 @@
         <v>234</v>
       </c>
       <c r="C116" s="6">
-        <v>2745.0</v>
+        <v>2745</v>
       </c>
       <c r="D116" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E116" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$2,196.00</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>0.18</v>
+      </c>
+      <c r="E116" s="8">
+        <f t="shared" si="0"/>
+        <v>2250.9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15.75" customHeight="1">
       <c r="A117" s="4" t="s">
         <v>235</v>
       </c>
@@ -3715,17 +4036,17 @@
         <v>236</v>
       </c>
       <c r="C117" s="6">
-        <v>2765.0</v>
+        <v>2765</v>
       </c>
       <c r="D117" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E117" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$2,212.00</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>0.18</v>
+      </c>
+      <c r="E117" s="8">
+        <f t="shared" si="0"/>
+        <v>2267.3000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.75" customHeight="1">
       <c r="A118" s="4" t="s">
         <v>237</v>
       </c>
@@ -3733,17 +4054,17 @@
         <v>238</v>
       </c>
       <c r="C118" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="D118" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E118" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$16.00</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>0.18</v>
+      </c>
+      <c r="E118" s="8">
+        <f t="shared" si="0"/>
+        <v>16.400000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" customHeight="1">
       <c r="A119" s="4" t="s">
         <v>239</v>
       </c>
@@ -3751,17 +4072,17 @@
         <v>240</v>
       </c>
       <c r="C119" s="6">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="D119" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E119" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$400.00</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>0.18</v>
+      </c>
+      <c r="E119" s="8">
+        <f t="shared" si="0"/>
+        <v>410.00000000000006</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" customHeight="1">
       <c r="A120" s="4" t="s">
         <v>241</v>
       </c>
@@ -3769,17 +4090,17 @@
         <v>242</v>
       </c>
       <c r="C120" s="6">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="D120" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E120" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$720.00</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>0.18</v>
+      </c>
+      <c r="E120" s="8">
+        <f t="shared" si="0"/>
+        <v>738</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" customHeight="1">
       <c r="A121" s="4" t="s">
         <v>243</v>
       </c>
@@ -3787,17 +4108,17 @@
         <v>244</v>
       </c>
       <c r="C121" s="6">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="D121" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E121" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,200.00</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>0.18</v>
+      </c>
+      <c r="E121" s="8">
+        <f t="shared" si="0"/>
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" customHeight="1">
       <c r="A122" s="4" t="s">
         <v>245</v>
       </c>
@@ -3805,17 +4126,17 @@
         <v>246</v>
       </c>
       <c r="C122" s="6">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="D122" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E122" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$40.00</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>0.18</v>
+      </c>
+      <c r="E122" s="8">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" customHeight="1">
       <c r="A123" s="4" t="s">
         <v>247</v>
       </c>
@@ -3823,17 +4144,17 @@
         <v>248</v>
       </c>
       <c r="C123" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D123" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E123" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$8.00</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>0.18</v>
+      </c>
+      <c r="E123" s="8">
+        <f t="shared" si="0"/>
+        <v>8.2000000000000011</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" customHeight="1">
       <c r="A124" s="4" t="s">
         <v>249</v>
       </c>
@@ -3841,17 +4162,17 @@
         <v>250</v>
       </c>
       <c r="C124" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D124" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E124" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$0.00</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>0.18</v>
+      </c>
+      <c r="E124" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" customHeight="1">
       <c r="A125" s="4" t="s">
         <v>251</v>
       </c>
@@ -3859,17 +4180,17 @@
         <v>252</v>
       </c>
       <c r="C125" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D125" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E125" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$8.00</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>0.18</v>
+      </c>
+      <c r="E125" s="8">
+        <f t="shared" si="0"/>
+        <v>8.2000000000000011</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" customHeight="1">
       <c r="A126" s="4" t="s">
         <v>253</v>
       </c>
@@ -3877,17 +4198,17 @@
         <v>254</v>
       </c>
       <c r="C126" s="6">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D126" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E126" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$800.00</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>0.18</v>
+      </c>
+      <c r="E126" s="8">
+        <f t="shared" si="0"/>
+        <v>820.00000000000011</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" customHeight="1">
       <c r="A127" s="4" t="s">
         <v>255</v>
       </c>
@@ -3895,17 +4216,17 @@
         <v>256</v>
       </c>
       <c r="C127" s="6">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="D127" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E127" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$200.00</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>0.18</v>
+      </c>
+      <c r="E127" s="8">
+        <f t="shared" si="0"/>
+        <v>205.00000000000003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" customHeight="1">
       <c r="A128" s="4" t="s">
         <v>257</v>
       </c>
@@ -3913,17 +4234,17 @@
         <v>258</v>
       </c>
       <c r="C128" s="6">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="D128" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E128" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$40.00</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>0.18</v>
+      </c>
+      <c r="E128" s="8">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" customHeight="1">
       <c r="A129" s="4" t="s">
         <v>259</v>
       </c>
@@ -3931,17 +4252,17 @@
         <v>260</v>
       </c>
       <c r="C129" s="6">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="D129" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E129" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$32.00</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>0.18</v>
+      </c>
+      <c r="E129" s="8">
+        <f t="shared" si="0"/>
+        <v>32.800000000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" customHeight="1">
       <c r="A130" s="4" t="s">
         <v>261</v>
       </c>
@@ -3949,17 +4270,17 @@
         <v>262</v>
       </c>
       <c r="C130" s="6">
-        <v>4000.0</v>
+        <v>4000</v>
       </c>
       <c r="D130" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E130" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$3,200.00</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>0.18</v>
+      </c>
+      <c r="E130" s="8">
+        <f t="shared" si="0"/>
+        <v>3280.0000000000005</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" customHeight="1">
       <c r="A131" s="4" t="s">
         <v>263</v>
       </c>
@@ -3967,17 +4288,17 @@
         <v>264</v>
       </c>
       <c r="C131" s="6">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D131" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E131" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$800.00</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>0.18</v>
+      </c>
+      <c r="E131" s="8">
+        <f t="shared" si="0"/>
+        <v>820.00000000000011</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" customHeight="1">
       <c r="A132" s="4" t="s">
         <v>265</v>
       </c>
@@ -3985,17 +4306,17 @@
         <v>266</v>
       </c>
       <c r="C132" s="6">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="D132" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E132" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$160.00</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>0.18</v>
+      </c>
+      <c r="E132" s="8">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" customHeight="1">
       <c r="A133" s="4" t="s">
         <v>267</v>
       </c>
@@ -4003,17 +4324,17 @@
         <v>268</v>
       </c>
       <c r="C133" s="6">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="D133" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E133" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$48.00</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>0.18</v>
+      </c>
+      <c r="E133" s="8">
+        <f t="shared" si="0"/>
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" customHeight="1">
       <c r="A134" s="4" t="s">
         <v>269</v>
       </c>
@@ -4021,17 +4342,17 @@
         <v>270</v>
       </c>
       <c r="C134" s="6">
-        <v>6000.0</v>
+        <v>6000</v>
       </c>
       <c r="D134" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E134" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$4,800.00</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>0.18</v>
+      </c>
+      <c r="E134" s="8">
+        <f t="shared" si="0"/>
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" customHeight="1">
       <c r="A135" s="4" t="s">
         <v>271</v>
       </c>
@@ -4039,17 +4360,17 @@
         <v>272</v>
       </c>
       <c r="C135" s="6">
-        <v>1200.0</v>
+        <v>1200</v>
       </c>
       <c r="D135" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E135" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$960.00</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>0.18</v>
+      </c>
+      <c r="E135" s="8">
+        <f t="shared" si="0"/>
+        <v>984.00000000000011</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" customHeight="1">
       <c r="A136" s="4" t="s">
         <v>273</v>
       </c>
@@ -4057,17 +4378,17 @@
         <v>274</v>
       </c>
       <c r="C136" s="6">
-        <v>2200.0</v>
+        <v>2200</v>
       </c>
       <c r="D136" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E136" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,760.00</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>0.18</v>
+      </c>
+      <c r="E136" s="8">
+        <f t="shared" si="0"/>
+        <v>1804.0000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" customHeight="1">
       <c r="A137" s="4" t="s">
         <v>275</v>
       </c>
@@ -4075,17 +4396,17 @@
         <v>276</v>
       </c>
       <c r="C137" s="6">
-        <v>3600.0</v>
+        <v>3600</v>
       </c>
       <c r="D137" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E137" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$2,880.00</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>0.18</v>
+      </c>
+      <c r="E137" s="8">
+        <f t="shared" si="0"/>
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" customHeight="1">
       <c r="A138" s="4" t="s">
         <v>277</v>
       </c>
@@ -4093,17 +4414,17 @@
         <v>278</v>
       </c>
       <c r="C138" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D138" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E138" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$9.60</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>0.18</v>
+      </c>
+      <c r="E138" s="8">
+        <f t="shared" si="0"/>
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" customHeight="1">
       <c r="A139" s="4" t="s">
         <v>279</v>
       </c>
@@ -4111,17 +4432,17 @@
         <v>280</v>
       </c>
       <c r="C139" s="6">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="D139" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E139" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$17.60</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>0.18</v>
+      </c>
+      <c r="E139" s="8">
+        <f t="shared" si="0"/>
+        <v>18.040000000000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" customHeight="1">
       <c r="A140" s="4" t="s">
         <v>281</v>
       </c>
@@ -4129,17 +4450,17 @@
         <v>282</v>
       </c>
       <c r="C140" s="6">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="D140" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E140" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$28.80</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>0.18</v>
+      </c>
+      <c r="E140" s="8">
+        <f t="shared" si="0"/>
+        <v>29.520000000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" customHeight="1">
       <c r="A141" s="4" t="s">
         <v>283</v>
       </c>
@@ -4147,17 +4468,17 @@
         <v>284</v>
       </c>
       <c r="C141" s="6">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="D141" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E141" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,200.00</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>0.18</v>
+      </c>
+      <c r="E141" s="8">
+        <f t="shared" si="0"/>
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" customHeight="1">
       <c r="A142" s="4" t="s">
         <v>285</v>
       </c>
@@ -4165,17 +4486,17 @@
         <v>286</v>
       </c>
       <c r="C142" s="6">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="D142" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E142" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$240.00</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>0.18</v>
+      </c>
+      <c r="E142" s="8">
+        <f t="shared" si="0"/>
+        <v>246.00000000000003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" customHeight="1">
       <c r="A143" s="4" t="s">
         <v>287</v>
       </c>
@@ -4183,17 +4504,17 @@
         <v>288</v>
       </c>
       <c r="C143" s="6">
-        <v>550.0</v>
+        <v>550</v>
       </c>
       <c r="D143" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E143" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$440.00</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>0.18</v>
+      </c>
+      <c r="E143" s="8">
+        <f t="shared" si="0"/>
+        <v>451.00000000000006</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" customHeight="1">
       <c r="A144" s="4" t="s">
         <v>289</v>
       </c>
@@ -4201,17 +4522,17 @@
         <v>290</v>
       </c>
       <c r="C144" s="6">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="D144" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E144" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$720.00</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>0.18</v>
+      </c>
+      <c r="E144" s="8">
+        <f t="shared" si="0"/>
+        <v>738</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" customHeight="1">
       <c r="A145" s="4" t="s">
         <v>291</v>
       </c>
@@ -4219,17 +4540,17 @@
         <v>292</v>
       </c>
       <c r="C145" s="6">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="D145" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E145" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$240.00</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>0.18</v>
+      </c>
+      <c r="E145" s="8">
+        <f t="shared" si="0"/>
+        <v>246.00000000000003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15.75" customHeight="1">
       <c r="A146" s="4" t="s">
         <v>293</v>
       </c>
@@ -4237,17 +4558,17 @@
         <v>294</v>
       </c>
       <c r="C146" s="6">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="D146" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E146" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$48.00</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>0.18</v>
+      </c>
+      <c r="E146" s="8">
+        <f t="shared" si="0"/>
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" customHeight="1">
       <c r="A147" s="4" t="s">
         <v>295</v>
       </c>
@@ -4255,17 +4576,17 @@
         <v>296</v>
       </c>
       <c r="C147" s="6">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="D147" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E147" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$88.00</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>0.18</v>
+      </c>
+      <c r="E147" s="8">
+        <f t="shared" si="0"/>
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" customHeight="1">
       <c r="A148" s="4" t="s">
         <v>297</v>
       </c>
@@ -4273,17 +4594,17 @@
         <v>298</v>
       </c>
       <c r="C148" s="6">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="D148" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E148" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$144.00</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>0.18</v>
+      </c>
+      <c r="E148" s="8">
+        <f t="shared" si="0"/>
+        <v>147.60000000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" customHeight="1">
       <c r="A149" s="4" t="s">
         <v>299</v>
       </c>
@@ -4291,17 +4612,17 @@
         <v>300</v>
       </c>
       <c r="C149" s="6">
-        <v>1025.0</v>
+        <v>1025</v>
       </c>
       <c r="D149" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E149" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$973.75</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>0.03</v>
+      </c>
+      <c r="E149" s="8">
+        <f t="shared" si="0"/>
+        <v>994.25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" customHeight="1">
       <c r="A150" s="4" t="s">
         <v>301</v>
       </c>
@@ -4309,17 +4630,17 @@
         <v>302</v>
       </c>
       <c r="C150" s="6">
-        <v>1025.0</v>
+        <v>1025</v>
       </c>
       <c r="D150" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E150" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$973.75</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>0.03</v>
+      </c>
+      <c r="E150" s="8">
+        <f t="shared" si="0"/>
+        <v>994.25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15.75" customHeight="1">
       <c r="A151" s="4" t="s">
         <v>303</v>
       </c>
@@ -4327,17 +4648,17 @@
         <v>304</v>
       </c>
       <c r="C151" s="6">
-        <v>580.0</v>
+        <v>580</v>
       </c>
       <c r="D151" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E151" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$551.00</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>0.03</v>
+      </c>
+      <c r="E151" s="8">
+        <f t="shared" si="0"/>
+        <v>562.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15.75" customHeight="1">
       <c r="A152" s="4" t="s">
         <v>305</v>
       </c>
@@ -4345,17 +4666,17 @@
         <v>306</v>
       </c>
       <c r="C152" s="6">
-        <v>345.0</v>
+        <v>345</v>
       </c>
       <c r="D152" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E152" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$327.75</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>0.03</v>
+      </c>
+      <c r="E152" s="8">
+        <f t="shared" si="0"/>
+        <v>334.65</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15.75" customHeight="1">
       <c r="A153" s="4" t="s">
         <v>307</v>
       </c>
@@ -4363,17 +4684,17 @@
         <v>308</v>
       </c>
       <c r="C153" s="6">
-        <v>1395.0</v>
+        <v>1395</v>
       </c>
       <c r="D153" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E153" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,325.25</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>0.03</v>
+      </c>
+      <c r="E153" s="8">
+        <f t="shared" si="0"/>
+        <v>1353.1499999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15.75" customHeight="1">
       <c r="A154" s="4" t="s">
         <v>309</v>
       </c>
@@ -4381,17 +4702,17 @@
         <v>310</v>
       </c>
       <c r="C154" s="6">
-        <v>1630.0</v>
+        <v>1630</v>
       </c>
       <c r="D154" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E154" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,548.50</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>0.03</v>
+      </c>
+      <c r="E154" s="8">
+        <f t="shared" si="0"/>
+        <v>1581.1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15.75" customHeight="1">
       <c r="A155" s="4" t="s">
         <v>311</v>
       </c>
@@ -4399,17 +4720,17 @@
         <v>312</v>
       </c>
       <c r="C155" s="6">
-        <v>1515.0</v>
+        <v>1515</v>
       </c>
       <c r="D155" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E155" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,439.25</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>0.03</v>
+      </c>
+      <c r="E155" s="8">
+        <f t="shared" si="0"/>
+        <v>1469.55</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" customHeight="1">
       <c r="A156" s="4" t="s">
         <v>313</v>
       </c>
@@ -4417,17 +4738,17 @@
         <v>314</v>
       </c>
       <c r="C156" s="6">
-        <v>1750.0</v>
+        <v>1750</v>
       </c>
       <c r="D156" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E156" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,662.50</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>0.03</v>
+      </c>
+      <c r="E156" s="8">
+        <f t="shared" si="0"/>
+        <v>1697.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" customHeight="1">
       <c r="A157" s="4" t="s">
         <v>315</v>
       </c>
@@ -4435,17 +4756,17 @@
         <v>316</v>
       </c>
       <c r="C157" s="6">
-        <v>495.0</v>
+        <v>495</v>
       </c>
       <c r="D157" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E157" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$470.25</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>0.03</v>
+      </c>
+      <c r="E157" s="8">
+        <f t="shared" si="0"/>
+        <v>480.15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" customHeight="1">
       <c r="A158" s="4" t="s">
         <v>317</v>
       </c>
@@ -4453,17 +4774,17 @@
         <v>318</v>
       </c>
       <c r="C158" s="6">
-        <v>495.0</v>
+        <v>495</v>
       </c>
       <c r="D158" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E158" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$470.25</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>0.03</v>
+      </c>
+      <c r="E158" s="8">
+        <f t="shared" si="0"/>
+        <v>480.15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15.75" customHeight="1">
       <c r="A159" s="4" t="s">
         <v>319</v>
       </c>
@@ -4471,17 +4792,17 @@
         <v>320</v>
       </c>
       <c r="C159" s="6">
-        <v>730.0</v>
+        <v>730</v>
       </c>
       <c r="D159" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E159" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$693.50</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>0.03</v>
+      </c>
+      <c r="E159" s="8">
+        <f t="shared" si="0"/>
+        <v>708.1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15.75" customHeight="1">
       <c r="A160" s="4" t="s">
         <v>321</v>
       </c>
@@ -4489,17 +4810,17 @@
         <v>322</v>
       </c>
       <c r="C160" s="6">
-        <v>730.0</v>
+        <v>730</v>
       </c>
       <c r="D160" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E160" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$693.50</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>0.03</v>
+      </c>
+      <c r="E160" s="8">
+        <f t="shared" si="0"/>
+        <v>708.1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15.75" customHeight="1">
       <c r="A161" s="4" t="s">
         <v>323</v>
       </c>
@@ -4507,17 +4828,17 @@
         <v>324</v>
       </c>
       <c r="C161" s="6">
-        <v>1295.0</v>
+        <v>1295</v>
       </c>
       <c r="D161" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E161" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,230.25</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>0.03</v>
+      </c>
+      <c r="E161" s="8">
+        <f t="shared" si="0"/>
+        <v>1256.1499999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15.75" customHeight="1">
       <c r="A162" s="4" t="s">
         <v>325</v>
       </c>
@@ -4525,17 +4846,17 @@
         <v>326</v>
       </c>
       <c r="C162" s="6">
-        <v>775.0</v>
+        <v>775</v>
       </c>
       <c r="D162" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E162" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$736.25</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>0.03</v>
+      </c>
+      <c r="E162" s="8">
+        <f t="shared" si="0"/>
+        <v>751.75</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15.75" customHeight="1">
       <c r="A163" s="4" t="s">
         <v>327</v>
       </c>
@@ -4543,17 +4864,17 @@
         <v>328</v>
       </c>
       <c r="C163" s="6">
-        <v>1295.0</v>
+        <v>1295</v>
       </c>
       <c r="D163" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E163" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,230.25</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>0.03</v>
+      </c>
+      <c r="E163" s="8">
+        <f t="shared" si="0"/>
+        <v>1256.1499999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15.75" customHeight="1">
       <c r="A164" s="4" t="s">
         <v>329</v>
       </c>
@@ -4561,17 +4882,17 @@
         <v>330</v>
       </c>
       <c r="C164" s="6">
-        <v>775.0</v>
+        <v>775</v>
       </c>
       <c r="D164" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E164" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$736.25</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>0.03</v>
+      </c>
+      <c r="E164" s="8">
+        <f t="shared" si="0"/>
+        <v>751.75</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15.75" customHeight="1">
       <c r="A165" s="4" t="s">
         <v>331</v>
       </c>
@@ -4579,17 +4900,17 @@
         <v>332</v>
       </c>
       <c r="C165" s="6">
-        <v>2115.0</v>
+        <v>2115</v>
       </c>
       <c r="D165" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E165" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$2,009.25</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>0.03</v>
+      </c>
+      <c r="E165" s="8">
+        <f t="shared" si="0"/>
+        <v>2051.5499999999997</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15.75" customHeight="1">
       <c r="A166" s="4" t="s">
         <v>333</v>
       </c>
@@ -4597,17 +4918,17 @@
         <v>334</v>
       </c>
       <c r="C166" s="6">
-        <v>1315.0</v>
+        <v>1315</v>
       </c>
       <c r="D166" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E166" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,249.25</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>0.03</v>
+      </c>
+      <c r="E166" s="8">
+        <f t="shared" si="0"/>
+        <v>1275.55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15.75" customHeight="1">
       <c r="A167" s="4" t="s">
         <v>335</v>
       </c>
@@ -4615,17 +4936,17 @@
         <v>336</v>
       </c>
       <c r="C167" s="6">
-        <v>2115.0</v>
+        <v>2115</v>
       </c>
       <c r="D167" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E167" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$2,009.25</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>0.03</v>
+      </c>
+      <c r="E167" s="8">
+        <f t="shared" si="0"/>
+        <v>2051.5499999999997</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15.75" customHeight="1">
       <c r="A168" s="4" t="s">
         <v>337</v>
       </c>
@@ -4633,17 +4954,17 @@
         <v>338</v>
       </c>
       <c r="C168" s="6">
-        <v>1315.0</v>
+        <v>1315</v>
       </c>
       <c r="D168" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E168" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,249.25</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>0.03</v>
+      </c>
+      <c r="E168" s="8">
+        <f t="shared" si="0"/>
+        <v>1275.55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15.75" customHeight="1">
       <c r="A169" s="4" t="s">
         <v>339</v>
       </c>
@@ -4651,17 +4972,17 @@
         <v>340</v>
       </c>
       <c r="C169" s="6">
-        <v>2990.0</v>
+        <v>2990</v>
       </c>
       <c r="D169" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E169" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$2,840.50</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>0.03</v>
+      </c>
+      <c r="E169" s="8">
+        <f t="shared" si="0"/>
+        <v>2900.2999999999997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15.75" customHeight="1">
       <c r="A170" s="4" t="s">
         <v>341</v>
       </c>
@@ -4669,17 +4990,17 @@
         <v>342</v>
       </c>
       <c r="C170" s="6">
-        <v>1995.0</v>
+        <v>1995</v>
       </c>
       <c r="D170" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E170" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,895.25</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>0.03</v>
+      </c>
+      <c r="E170" s="8">
+        <f t="shared" si="0"/>
+        <v>1935.1499999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15.75" customHeight="1">
       <c r="A171" s="4" t="s">
         <v>343</v>
       </c>
@@ -4687,17 +5008,17 @@
         <v>344</v>
       </c>
       <c r="C171" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D171" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="E171" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$12.75</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>0.13</v>
+      </c>
+      <c r="E171" s="8">
+        <f t="shared" si="0"/>
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15.75" customHeight="1">
       <c r="A172" s="4" t="s">
         <v>345</v>
       </c>
@@ -4705,17 +5026,17 @@
         <v>346</v>
       </c>
       <c r="C172" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D172" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="E172" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$12.75</v>
-      </c>
-    </row>
-    <row r="173">
+        <v>0.13</v>
+      </c>
+      <c r="E172" s="8">
+        <f t="shared" si="0"/>
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15.75" customHeight="1">
       <c r="A173" s="4" t="s">
         <v>347</v>
       </c>
@@ -4723,17 +5044,17 @@
         <v>348</v>
       </c>
       <c r="C173" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D173" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="E173" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$12.75</v>
-      </c>
-    </row>
-    <row r="174">
+        <v>0.13</v>
+      </c>
+      <c r="E173" s="8">
+        <f t="shared" si="0"/>
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15.75" customHeight="1">
       <c r="A174" s="4" t="s">
         <v>349</v>
       </c>
@@ -4741,17 +5062,17 @@
         <v>350</v>
       </c>
       <c r="C174" s="6">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="D174" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="E174" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$21.25</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>0.13</v>
+      </c>
+      <c r="E174" s="8">
+        <f t="shared" si="0"/>
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15.75" customHeight="1">
       <c r="A175" s="4" t="s">
         <v>351</v>
       </c>
@@ -4759,17 +5080,17 @@
         <v>352</v>
       </c>
       <c r="C175" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D175" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="E175" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$12.75</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>0.13</v>
+      </c>
+      <c r="E175" s="8">
+        <f t="shared" si="0"/>
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15.75" customHeight="1">
       <c r="A176" s="4" t="s">
         <v>353</v>
       </c>
@@ -4777,17 +5098,17 @@
         <v>354</v>
       </c>
       <c r="C176" s="6">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="D176" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="E176" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$21.25</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>0.13</v>
+      </c>
+      <c r="E176" s="8">
+        <f t="shared" si="0"/>
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15.75" customHeight="1">
       <c r="A177" s="4" t="s">
         <v>355</v>
       </c>
@@ -4795,17 +5116,17 @@
         <v>356</v>
       </c>
       <c r="C177" s="6">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="D177" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="E177" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$109.65</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>0.13</v>
+      </c>
+      <c r="E177" s="8">
+        <f t="shared" si="0"/>
+        <v>112.23</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15.75" customHeight="1">
       <c r="A178" s="4" t="s">
         <v>357</v>
       </c>
@@ -4813,17 +5134,17 @@
         <v>358</v>
       </c>
       <c r="C178" s="6">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="D178" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="E178" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$152.15</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>0.13</v>
+      </c>
+      <c r="E178" s="8">
+        <f t="shared" si="0"/>
+        <v>155.72999999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" customHeight="1">
       <c r="A179" s="4" t="s">
         <v>359</v>
       </c>
@@ -4831,17 +5152,17 @@
         <v>360</v>
       </c>
       <c r="C179" s="6">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="D179" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="E179" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$160.65</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>0.13</v>
+      </c>
+      <c r="E179" s="8">
+        <f t="shared" si="0"/>
+        <v>164.43</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15.75" customHeight="1">
       <c r="A180" s="4" t="s">
         <v>361</v>
       </c>
@@ -4849,17 +5170,17 @@
         <v>362</v>
       </c>
       <c r="C180" s="6">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="D180" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="E180" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$254.15</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>0.13</v>
+      </c>
+      <c r="E180" s="8">
+        <f t="shared" si="0"/>
+        <v>260.13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15.75" customHeight="1">
       <c r="A181" s="4" t="s">
         <v>363</v>
       </c>
@@ -4867,17 +5188,17 @@
         <v>364</v>
       </c>
       <c r="C181" s="6">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="D181" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E181" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$223.25</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>0.03</v>
+      </c>
+      <c r="E181" s="8">
+        <f t="shared" si="0"/>
+        <v>227.95</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.75" customHeight="1">
       <c r="A182" s="4" t="s">
         <v>365</v>
       </c>
@@ -4885,17 +5206,17 @@
         <v>366</v>
       </c>
       <c r="C182" s="6">
-        <v>520.0</v>
+        <v>520</v>
       </c>
       <c r="D182" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E182" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$494.00</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>0.03</v>
+      </c>
+      <c r="E182" s="8">
+        <f t="shared" si="0"/>
+        <v>504.4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15.75" customHeight="1">
       <c r="A183" s="4" t="s">
         <v>367</v>
       </c>
@@ -4903,17 +5224,17 @@
         <v>368</v>
       </c>
       <c r="C183" s="6">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="D183" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E183" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$760.00</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>0.03</v>
+      </c>
+      <c r="E183" s="8">
+        <f t="shared" si="0"/>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15.75" customHeight="1">
       <c r="A184" s="4" t="s">
         <v>369</v>
       </c>
@@ -4921,17 +5242,17 @@
         <v>370</v>
       </c>
       <c r="C184" s="6">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="D184" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E184" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$223.25</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>0.03</v>
+      </c>
+      <c r="E184" s="8">
+        <f t="shared" si="0"/>
+        <v>227.95</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15.75" customHeight="1">
       <c r="A185" s="4" t="s">
         <v>371</v>
       </c>
@@ -4939,17 +5260,17 @@
         <v>372</v>
       </c>
       <c r="C185" s="6">
-        <v>520.0</v>
+        <v>520</v>
       </c>
       <c r="D185" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E185" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$494.00</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>0.03</v>
+      </c>
+      <c r="E185" s="8">
+        <f t="shared" si="0"/>
+        <v>504.4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15.75" customHeight="1">
       <c r="A186" s="4" t="s">
         <v>373</v>
       </c>
@@ -4957,17 +5278,17 @@
         <v>374</v>
       </c>
       <c r="C186" s="6">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="D186" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E186" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$760.00</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>0.03</v>
+      </c>
+      <c r="E186" s="8">
+        <f t="shared" si="0"/>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" customHeight="1">
       <c r="A187" s="4" t="s">
         <v>375</v>
       </c>
@@ -4975,17 +5296,17 @@
         <v>376</v>
       </c>
       <c r="C187" s="6">
-        <v>995.0</v>
+        <v>995</v>
       </c>
       <c r="D187" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E187" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$945.25</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>0.03</v>
+      </c>
+      <c r="E187" s="8">
+        <f t="shared" si="0"/>
+        <v>965.15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15.75" customHeight="1">
       <c r="A188" s="4" t="s">
         <v>377</v>
       </c>
@@ -4996,14 +5317,14 @@
         <v>43.95</v>
       </c>
       <c r="D188" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E188" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$41.75</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>0.03</v>
+      </c>
+      <c r="E188" s="8">
+        <f t="shared" si="0"/>
+        <v>42.631500000000003</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15.75" customHeight="1">
       <c r="A189" s="4" t="s">
         <v>379</v>
       </c>
@@ -5011,17 +5332,17 @@
         <v>380</v>
       </c>
       <c r="C189" s="6">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="D189" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E189" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$166.25</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>0.03</v>
+      </c>
+      <c r="E189" s="8">
+        <f t="shared" si="0"/>
+        <v>169.75</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15.75" customHeight="1">
       <c r="A190" s="4" t="s">
         <v>381</v>
       </c>
@@ -5029,17 +5350,17 @@
         <v>382</v>
       </c>
       <c r="C190" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="D190" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E190" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$19.00</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>0.03</v>
+      </c>
+      <c r="E190" s="8">
+        <f t="shared" si="0"/>
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15.75" customHeight="1">
       <c r="A191" s="4" t="s">
         <v>383</v>
       </c>
@@ -5047,17 +5368,17 @@
         <v>384</v>
       </c>
       <c r="C191" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="D191" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E191" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$19.00</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>0.03</v>
+      </c>
+      <c r="E191" s="8">
+        <f t="shared" si="0"/>
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15.75" customHeight="1">
       <c r="A192" s="4" t="s">
         <v>385</v>
       </c>
@@ -5065,17 +5386,17 @@
         <v>386</v>
       </c>
       <c r="C192" s="6">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="D192" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E192" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$66.50</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>0.03</v>
+      </c>
+      <c r="E192" s="8">
+        <f t="shared" si="0"/>
+        <v>67.899999999999991</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15.75" customHeight="1">
       <c r="A193" s="4" t="s">
         <v>387</v>
       </c>
@@ -5083,17 +5404,17 @@
         <v>388</v>
       </c>
       <c r="C193" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="D193" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E193" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$19.00</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>0.03</v>
+      </c>
+      <c r="E193" s="8">
+        <f t="shared" si="0"/>
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15.75" customHeight="1">
       <c r="A194" s="4" t="s">
         <v>389</v>
       </c>
@@ -5101,17 +5422,17 @@
         <v>390</v>
       </c>
       <c r="C194" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D194" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E194" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$9.50</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>0.03</v>
+      </c>
+      <c r="E194" s="8">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15.75" customHeight="1">
       <c r="A195" s="4" t="s">
         <v>391</v>
       </c>
@@ -5119,17 +5440,17 @@
         <v>392</v>
       </c>
       <c r="C195" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D195" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E195" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$9.50</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>0.03</v>
+      </c>
+      <c r="E195" s="8">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15.75" customHeight="1">
       <c r="A196" s="4" t="s">
         <v>393</v>
       </c>
@@ -5137,17 +5458,17 @@
         <v>394</v>
       </c>
       <c r="C196" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D196" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E196" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$14.25</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>0.03</v>
+      </c>
+      <c r="E196" s="8">
+        <f t="shared" si="0"/>
+        <v>14.549999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15.75" customHeight="1">
       <c r="A197" s="4" t="s">
         <v>395</v>
       </c>
@@ -5155,17 +5476,17 @@
         <v>396</v>
       </c>
       <c r="C197" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D197" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E197" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$9.50</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>0.03</v>
+      </c>
+      <c r="E197" s="8">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15.75" customHeight="1">
       <c r="A198" s="4" t="s">
         <v>397</v>
       </c>
@@ -5173,17 +5494,17 @@
         <v>398</v>
       </c>
       <c r="C198" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D198" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E198" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$9.50</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>0.03</v>
+      </c>
+      <c r="E198" s="8">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15.75" customHeight="1">
       <c r="A199" s="4" t="s">
         <v>399</v>
       </c>
@@ -5191,17 +5512,17 @@
         <v>400</v>
       </c>
       <c r="C199" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D199" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E199" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$9.50</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>0.03</v>
+      </c>
+      <c r="E199" s="8">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15.75" customHeight="1">
       <c r="A200" s="4" t="s">
         <v>401</v>
       </c>
@@ -5209,17 +5530,17 @@
         <v>402</v>
       </c>
       <c r="C200" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D200" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E200" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$9.50</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>0.03</v>
+      </c>
+      <c r="E200" s="8">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15.75" customHeight="1">
       <c r="A201" s="4" t="s">
         <v>403</v>
       </c>
@@ -5227,17 +5548,17 @@
         <v>404</v>
       </c>
       <c r="C201" s="6">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="D201" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E201" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$228.00</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>0.03</v>
+      </c>
+      <c r="E201" s="8">
+        <f t="shared" si="0"/>
+        <v>232.79999999999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15.75" customHeight="1">
       <c r="A202" s="4" t="s">
         <v>405</v>
       </c>
@@ -5245,17 +5566,17 @@
         <v>406</v>
       </c>
       <c r="C202" s="6">
-        <v>480.0</v>
+        <v>480</v>
       </c>
       <c r="D202" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E202" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$456.00</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>0.03</v>
+      </c>
+      <c r="E202" s="8">
+        <f t="shared" si="0"/>
+        <v>465.59999999999997</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15.75" customHeight="1">
       <c r="A203" s="4" t="s">
         <v>407</v>
       </c>
@@ -5263,17 +5584,17 @@
         <v>408</v>
       </c>
       <c r="C203" s="6">
-        <v>375.0</v>
+        <v>375</v>
       </c>
       <c r="D203" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E203" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$356.25</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>0.03</v>
+      </c>
+      <c r="E203" s="8">
+        <f t="shared" si="0"/>
+        <v>363.75</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15.75" customHeight="1">
       <c r="A204" s="4" t="s">
         <v>409</v>
       </c>
@@ -5281,17 +5602,17 @@
         <v>410</v>
       </c>
       <c r="C204" s="6">
-        <v>750.0</v>
+        <v>750</v>
       </c>
       <c r="D204" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E204" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$712.50</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>0.03</v>
+      </c>
+      <c r="E204" s="8">
+        <f t="shared" si="0"/>
+        <v>727.5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15.75" customHeight="1">
       <c r="A205" s="4" t="s">
         <v>411</v>
       </c>
@@ -5299,17 +5620,17 @@
         <v>412</v>
       </c>
       <c r="C205" s="6">
-        <v>645.0</v>
+        <v>645</v>
       </c>
       <c r="D205" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E205" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$612.75</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>0.03</v>
+      </c>
+      <c r="E205" s="8">
+        <f t="shared" si="0"/>
+        <v>625.65</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15.75" customHeight="1">
       <c r="A206" s="4" t="s">
         <v>413</v>
       </c>
@@ -5317,17 +5638,17 @@
         <v>414</v>
       </c>
       <c r="C206" s="6">
-        <v>1290.0</v>
+        <v>1290</v>
       </c>
       <c r="D206" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E206" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,225.50</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>0.03</v>
+      </c>
+      <c r="E206" s="8">
+        <f t="shared" si="0"/>
+        <v>1251.3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15.75" customHeight="1">
       <c r="A207" s="4" t="s">
         <v>415</v>
       </c>
@@ -5335,17 +5656,17 @@
         <v>416</v>
       </c>
       <c r="C207" s="6">
-        <v>965.0</v>
+        <v>965</v>
       </c>
       <c r="D207" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E207" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$916.75</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>0.03</v>
+      </c>
+      <c r="E207" s="8">
+        <f t="shared" si="0"/>
+        <v>936.05</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15.75" customHeight="1">
       <c r="A208" s="4" t="s">
         <v>417</v>
       </c>
@@ -5353,17 +5674,17 @@
         <v>418</v>
       </c>
       <c r="C208" s="6">
-        <v>1930.0</v>
+        <v>1930</v>
       </c>
       <c r="D208" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E208" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,833.50</v>
-      </c>
-    </row>
-    <row r="209">
+        <v>0.03</v>
+      </c>
+      <c r="E208" s="8">
+        <f t="shared" si="0"/>
+        <v>1872.1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15.75" customHeight="1">
       <c r="A209" s="4" t="s">
         <v>419</v>
       </c>
@@ -5371,17 +5692,17 @@
         <v>420</v>
       </c>
       <c r="C209" s="6">
-        <v>1245.0</v>
+        <v>1245</v>
       </c>
       <c r="D209" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E209" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,182.75</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>0.03</v>
+      </c>
+      <c r="E209" s="8">
+        <f t="shared" si="0"/>
+        <v>1207.6499999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15.75" customHeight="1">
       <c r="A210" s="4" t="s">
         <v>421</v>
       </c>
@@ -5389,17 +5710,17 @@
         <v>422</v>
       </c>
       <c r="C210" s="6">
-        <v>2490.0</v>
+        <v>2490</v>
       </c>
       <c r="D210" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E210" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$2,365.50</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>0.03</v>
+      </c>
+      <c r="E210" s="8">
+        <f t="shared" si="0"/>
+        <v>2415.2999999999997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15.75" customHeight="1">
       <c r="A211" s="4" t="s">
         <v>423</v>
       </c>
@@ -5407,17 +5728,17 @@
         <v>424</v>
       </c>
       <c r="C211" s="6">
-        <v>1715.0</v>
+        <v>1715</v>
       </c>
       <c r="D211" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E211" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,629.25</v>
-      </c>
-    </row>
-    <row r="212">
+        <v>0.03</v>
+      </c>
+      <c r="E211" s="8">
+        <f t="shared" si="0"/>
+        <v>1663.55</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15.75" customHeight="1">
       <c r="A212" s="4" t="s">
         <v>425</v>
       </c>
@@ -5425,17 +5746,17 @@
         <v>426</v>
       </c>
       <c r="C212" s="6">
-        <v>3430.0</v>
+        <v>3430</v>
       </c>
       <c r="D212" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E212" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$3,258.50</v>
-      </c>
-    </row>
-    <row r="213">
+        <v>0.03</v>
+      </c>
+      <c r="E212" s="8">
+        <f t="shared" si="0"/>
+        <v>3327.1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15.75" customHeight="1">
       <c r="A213" s="4" t="s">
         <v>427</v>
       </c>
@@ -5443,17 +5764,17 @@
         <v>428</v>
       </c>
       <c r="C213" s="6">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="D213" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E213" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$170.05</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>0.03</v>
+      </c>
+      <c r="E213" s="8">
+        <f t="shared" si="0"/>
+        <v>173.63</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15.75" customHeight="1">
       <c r="A214" s="4" t="s">
         <v>429</v>
       </c>
@@ -5461,17 +5782,17 @@
         <v>430</v>
       </c>
       <c r="C214" s="6">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="D214" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E214" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$284.05</v>
-      </c>
-    </row>
-    <row r="215">
+        <v>0.03</v>
+      </c>
+      <c r="E214" s="8">
+        <f t="shared" si="0"/>
+        <v>290.02999999999997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15.75" customHeight="1">
       <c r="A215" s="4" t="s">
         <v>431</v>
       </c>
@@ -5479,17 +5800,17 @@
         <v>432</v>
       </c>
       <c r="C215" s="6">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="D215" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E215" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$284.05</v>
-      </c>
-    </row>
-    <row r="216">
+        <v>0.03</v>
+      </c>
+      <c r="E215" s="8">
+        <f t="shared" si="0"/>
+        <v>290.02999999999997</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15.75" customHeight="1">
       <c r="A216" s="4" t="s">
         <v>433</v>
       </c>
@@ -5497,17 +5818,17 @@
         <v>434</v>
       </c>
       <c r="C216" s="6">
-        <v>399.0</v>
+        <v>399</v>
       </c>
       <c r="D216" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E216" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$379.05</v>
-      </c>
-    </row>
-    <row r="217">
+        <v>0.03</v>
+      </c>
+      <c r="E216" s="8">
+        <f t="shared" si="0"/>
+        <v>387.03</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15.75" customHeight="1">
       <c r="A217" s="4" t="s">
         <v>435</v>
       </c>
@@ -5515,17 +5836,17 @@
         <v>436</v>
       </c>
       <c r="C217" s="6">
-        <v>449.0</v>
+        <v>449</v>
       </c>
       <c r="D217" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E217" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$426.55</v>
-      </c>
-    </row>
-    <row r="218">
+        <v>0.03</v>
+      </c>
+      <c r="E217" s="8">
+        <f t="shared" si="0"/>
+        <v>435.53</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15.75" customHeight="1">
       <c r="A218" s="4" t="s">
         <v>437</v>
       </c>
@@ -5533,17 +5854,17 @@
         <v>438</v>
       </c>
       <c r="C218" s="6">
-        <v>599.0</v>
+        <v>599</v>
       </c>
       <c r="D218" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E218" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$569.05</v>
-      </c>
-    </row>
-    <row r="219">
+        <v>0.03</v>
+      </c>
+      <c r="E218" s="8">
+        <f t="shared" si="0"/>
+        <v>581.03</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15.75" customHeight="1">
       <c r="A219" s="4" t="s">
         <v>439</v>
       </c>
@@ -5551,17 +5872,17 @@
         <v>440</v>
       </c>
       <c r="C219" s="6">
-        <v>599.0</v>
+        <v>599</v>
       </c>
       <c r="D219" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E219" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$569.05</v>
-      </c>
-    </row>
-    <row r="220">
+        <v>0.03</v>
+      </c>
+      <c r="E219" s="8">
+        <f t="shared" si="0"/>
+        <v>581.03</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15.75" customHeight="1">
       <c r="A220" s="4" t="s">
         <v>441</v>
       </c>
@@ -5569,17 +5890,17 @@
         <v>442</v>
       </c>
       <c r="C220" s="6">
-        <v>799.0</v>
+        <v>799</v>
       </c>
       <c r="D220" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E220" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$759.05</v>
-      </c>
-    </row>
-    <row r="221">
+        <v>0.03</v>
+      </c>
+      <c r="E220" s="8">
+        <f t="shared" si="0"/>
+        <v>775.03</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15.75" customHeight="1">
       <c r="A221" s="10" t="s">
         <v>443</v>
       </c>
@@ -5587,17 +5908,17 @@
         <v>444</v>
       </c>
       <c r="C221" s="12">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="D221" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E221" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$3,000.00</v>
-      </c>
-    </row>
-    <row r="222">
+        <v>0</v>
+      </c>
+      <c r="E221" s="8">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15.75" customHeight="1">
       <c r="A222" s="10" t="s">
         <v>445</v>
       </c>
@@ -5605,17 +5926,17 @@
         <v>446</v>
       </c>
       <c r="C222" s="12">
-        <v>1995.0</v>
+        <v>1995</v>
       </c>
       <c r="D222" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E222" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,995.00</v>
-      </c>
-    </row>
-    <row r="223">
+        <v>0</v>
+      </c>
+      <c r="E222" s="8">
+        <f t="shared" si="0"/>
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15.75" customHeight="1">
       <c r="A223" s="10" t="s">
         <v>447</v>
       </c>
@@ -5623,17 +5944,17 @@
         <v>448</v>
       </c>
       <c r="C223" s="12">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="D223" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E223" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$299.00</v>
-      </c>
-    </row>
-    <row r="224">
+        <v>0</v>
+      </c>
+      <c r="E223" s="8">
+        <f t="shared" si="0"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15.75" customHeight="1">
       <c r="A224" s="4" t="s">
         <v>449</v>
       </c>
@@ -5641,17 +5962,17 @@
         <v>450</v>
       </c>
       <c r="C224" s="6">
-        <v>295.0</v>
+        <v>295</v>
       </c>
       <c r="D224" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E224" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$295.00</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>0</v>
+      </c>
+      <c r="E224" s="8">
+        <f t="shared" si="0"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15.75" customHeight="1">
       <c r="A225" s="4" t="s">
         <v>451</v>
       </c>
@@ -5659,17 +5980,17 @@
         <v>452</v>
       </c>
       <c r="C225" s="6">
-        <v>295.0</v>
+        <v>295</v>
       </c>
       <c r="D225" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E225" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$295.00</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>0</v>
+      </c>
+      <c r="E225" s="8">
+        <f t="shared" si="0"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="15.75" customHeight="1">
       <c r="A226" s="4" t="s">
         <v>453</v>
       </c>
@@ -5677,17 +5998,17 @@
         <v>454</v>
       </c>
       <c r="C226" s="6">
-        <v>995.0</v>
+        <v>995</v>
       </c>
       <c r="D226" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E226" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$995.00</v>
-      </c>
-    </row>
-    <row r="227">
+        <v>0</v>
+      </c>
+      <c r="E226" s="8">
+        <f t="shared" si="0"/>
+        <v>995</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="15.75" customHeight="1">
       <c r="A227" s="10" t="s">
         <v>455</v>
       </c>
@@ -5695,17 +6016,17 @@
         <v>456</v>
       </c>
       <c r="C227" s="12">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="D227" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E227" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$142.50</v>
-      </c>
-    </row>
-    <row r="228">
+        <v>0</v>
+      </c>
+      <c r="E227" s="8">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="15.75" customHeight="1">
       <c r="A228" s="4" t="s">
         <v>457</v>
       </c>
@@ -5713,17 +6034,17 @@
         <v>458</v>
       </c>
       <c r="C228" s="6">
-        <v>595.0</v>
+        <v>595</v>
       </c>
       <c r="D228" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E228" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$565.25</v>
-      </c>
-    </row>
-    <row r="229">
+        <v>0.03</v>
+      </c>
+      <c r="E228" s="8">
+        <f t="shared" si="0"/>
+        <v>577.15</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="15.75" customHeight="1">
       <c r="A229" s="4" t="s">
         <v>459</v>
       </c>
@@ -5731,17 +6052,17 @@
         <v>460</v>
       </c>
       <c r="C229" s="6">
-        <v>1605.0</v>
+        <v>1605</v>
       </c>
       <c r="D229" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E229" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,524.75</v>
-      </c>
-    </row>
-    <row r="230">
+        <v>0.03</v>
+      </c>
+      <c r="E229" s="8">
+        <f t="shared" si="0"/>
+        <v>1556.85</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15.75" customHeight="1">
       <c r="A230" s="4" t="s">
         <v>461</v>
       </c>
@@ -5749,17 +6070,17 @@
         <v>462</v>
       </c>
       <c r="C230" s="6">
-        <v>295.0</v>
+        <v>295</v>
       </c>
       <c r="D230" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E230" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$280.25</v>
-      </c>
-    </row>
-    <row r="231">
+        <v>0.03</v>
+      </c>
+      <c r="E230" s="8">
+        <f t="shared" si="0"/>
+        <v>286.14999999999998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15.75" customHeight="1">
       <c r="A231" s="4" t="s">
         <v>463</v>
       </c>
@@ -5767,17 +6088,17 @@
         <v>464</v>
       </c>
       <c r="C231" s="6">
-        <v>1995.0</v>
+        <v>1995</v>
       </c>
       <c r="D231" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E231" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,895.25</v>
-      </c>
-    </row>
-    <row r="232">
+        <v>0.03</v>
+      </c>
+      <c r="E231" s="8">
+        <f t="shared" si="0"/>
+        <v>1935.1499999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15.75" customHeight="1">
       <c r="A232" s="4" t="s">
         <v>465</v>
       </c>
@@ -5785,17 +6106,17 @@
         <v>466</v>
       </c>
       <c r="C232" s="6">
-        <v>5385.0</v>
+        <v>5385</v>
       </c>
       <c r="D232" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E232" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$5,115.75</v>
-      </c>
-    </row>
-    <row r="233">
+        <v>0.03</v>
+      </c>
+      <c r="E232" s="8">
+        <f t="shared" si="0"/>
+        <v>5223.45</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="15.75" customHeight="1">
       <c r="A233" s="4" t="s">
         <v>467</v>
       </c>
@@ -5803,17 +6124,17 @@
         <v>468</v>
       </c>
       <c r="C233" s="6">
-        <v>295.0</v>
+        <v>295</v>
       </c>
       <c r="D233" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E233" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$280.25</v>
-      </c>
-    </row>
-    <row r="234">
+        <v>0.03</v>
+      </c>
+      <c r="E233" s="8">
+        <f t="shared" si="0"/>
+        <v>286.14999999999998</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="15.75" customHeight="1">
       <c r="A234" s="4" t="s">
         <v>469</v>
       </c>
@@ -5821,17 +6142,17 @@
         <v>470</v>
       </c>
       <c r="C234" s="6">
-        <v>3995.0</v>
+        <v>3995</v>
       </c>
       <c r="D234" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E234" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$3,795.25</v>
-      </c>
-    </row>
-    <row r="235">
+        <v>0.03</v>
+      </c>
+      <c r="E234" s="8">
+        <f t="shared" si="0"/>
+        <v>3875.15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15.75" customHeight="1">
       <c r="A235" s="4" t="s">
         <v>471</v>
       </c>
@@ -5839,17 +6160,17 @@
         <v>472</v>
       </c>
       <c r="C235" s="6">
-        <v>10785.0</v>
+        <v>10785</v>
       </c>
       <c r="D235" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E235" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$10,245.75</v>
-      </c>
-    </row>
-    <row r="236">
+        <v>0.03</v>
+      </c>
+      <c r="E235" s="8">
+        <f t="shared" si="0"/>
+        <v>10461.449999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="15.75" customHeight="1">
       <c r="A236" s="4" t="s">
         <v>473</v>
       </c>
@@ -5857,17 +6178,17 @@
         <v>474</v>
       </c>
       <c r="C236" s="6">
-        <v>295.0</v>
+        <v>295</v>
       </c>
       <c r="D236" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E236" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$280.25</v>
-      </c>
-    </row>
-    <row r="237">
+        <v>0.03</v>
+      </c>
+      <c r="E236" s="8">
+        <f t="shared" si="0"/>
+        <v>286.14999999999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="15.75" customHeight="1">
       <c r="A237" s="4" t="s">
         <v>475</v>
       </c>
@@ -5875,17 +6196,17 @@
         <v>476</v>
       </c>
       <c r="C237" s="6">
-        <v>495.0</v>
+        <v>495</v>
       </c>
       <c r="D237" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E237" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$470.25</v>
-      </c>
-    </row>
-    <row r="238">
+        <v>0.03</v>
+      </c>
+      <c r="E237" s="8">
+        <f t="shared" si="0"/>
+        <v>480.15</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="15.75" customHeight="1">
       <c r="A238" s="4" t="s">
         <v>477</v>
       </c>
@@ -5893,17 +6214,17 @@
         <v>478</v>
       </c>
       <c r="C238" s="6">
-        <v>7995.0</v>
+        <v>7995</v>
       </c>
       <c r="D238" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E238" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$7,595.25</v>
-      </c>
-    </row>
-    <row r="239">
+        <v>0.03</v>
+      </c>
+      <c r="E238" s="8">
+        <f t="shared" si="0"/>
+        <v>7755.15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="15.75" customHeight="1">
       <c r="A239" s="4" t="s">
         <v>479</v>
       </c>
@@ -5911,17 +6232,17 @@
         <v>480</v>
       </c>
       <c r="C239" s="6">
-        <v>21585.0</v>
+        <v>21585</v>
       </c>
       <c r="D239" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E239" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$20,505.75</v>
-      </c>
-    </row>
-    <row r="240">
+        <v>0.03</v>
+      </c>
+      <c r="E239" s="8">
+        <f t="shared" si="0"/>
+        <v>20937.45</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="15.75" customHeight="1">
       <c r="A240" s="4" t="s">
         <v>481</v>
       </c>
@@ -5929,17 +6250,17 @@
         <v>482</v>
       </c>
       <c r="C240" s="6">
-        <v>395.0</v>
+        <v>395</v>
       </c>
       <c r="D240" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E240" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$375.25</v>
-      </c>
-    </row>
-    <row r="241">
+        <v>0.03</v>
+      </c>
+      <c r="E240" s="8">
+        <f t="shared" si="0"/>
+        <v>383.15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="15.75" customHeight="1">
       <c r="A241" s="4" t="s">
         <v>483</v>
       </c>
@@ -5947,17 +6268,17 @@
         <v>484</v>
       </c>
       <c r="C241" s="6">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="D241" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E241" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$185.25</v>
-      </c>
-    </row>
-    <row r="242">
+        <v>0.03</v>
+      </c>
+      <c r="E241" s="8">
+        <f t="shared" si="0"/>
+        <v>189.15</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="15.75" customHeight="1">
       <c r="A242" s="4" t="s">
         <v>485</v>
       </c>
@@ -5965,17 +6286,17 @@
         <v>486</v>
       </c>
       <c r="C242" s="6">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D242" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E242" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$35.00</v>
-      </c>
-    </row>
-    <row r="243">
+        <v>0.03</v>
+      </c>
+      <c r="E242" s="8">
+        <f t="shared" si="0"/>
+        <v>33.949999999999996</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="15.75" customHeight="1">
       <c r="A243" s="4" t="s">
         <v>487</v>
       </c>
@@ -5983,17 +6304,17 @@
         <v>488</v>
       </c>
       <c r="C243" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D243" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E243" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$10.00</v>
-      </c>
-    </row>
-    <row r="244">
+        <v>0.03</v>
+      </c>
+      <c r="E243" s="8">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="15.75" customHeight="1">
       <c r="A244" s="4" t="s">
         <v>489</v>
       </c>
@@ -6001,17 +6322,17 @@
         <v>490</v>
       </c>
       <c r="C244" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D244" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E244" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$10.00</v>
-      </c>
-    </row>
-    <row r="245">
+        <v>0.03</v>
+      </c>
+      <c r="E244" s="8">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="15.75" customHeight="1">
       <c r="A245" s="13" t="s">
         <v>491</v>
       </c>
@@ -6019,17 +6340,17 @@
         <v>492</v>
       </c>
       <c r="C245" s="15">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="D245" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E245" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$30,000.00</v>
-      </c>
-    </row>
-    <row r="246">
+        <v>0</v>
+      </c>
+      <c r="E245" s="8">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="15.75" customHeight="1">
       <c r="A246" s="13" t="s">
         <v>491</v>
       </c>
@@ -6037,17 +6358,17 @@
         <v>493</v>
       </c>
       <c r="C246" s="15">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="D246" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E246" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$600.00</v>
-      </c>
-    </row>
-    <row r="247">
+        <v>0</v>
+      </c>
+      <c r="E246" s="8">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="15.75" customHeight="1">
       <c r="A247" s="13" t="s">
         <v>447</v>
       </c>
@@ -6055,17 +6376,17 @@
         <v>448</v>
       </c>
       <c r="C247" s="15">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="D247" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E247" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$299.00</v>
-      </c>
-    </row>
-    <row r="248">
+        <v>0</v>
+      </c>
+      <c r="E247" s="8">
+        <f t="shared" si="0"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="15.75" customHeight="1">
       <c r="A248" s="13" t="s">
         <v>443</v>
       </c>
@@ -6073,17 +6394,17 @@
         <v>444</v>
       </c>
       <c r="C248" s="15">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="D248" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E248" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$3,000.00</v>
-      </c>
-    </row>
-    <row r="249">
+        <v>0</v>
+      </c>
+      <c r="E248" s="8">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="15.75" customHeight="1">
       <c r="A249" s="13" t="s">
         <v>445</v>
       </c>
@@ -6091,17 +6412,17 @@
         <v>446</v>
       </c>
       <c r="C249" s="15">
-        <v>1995.0</v>
+        <v>1995</v>
       </c>
       <c r="D249" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E249" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$1,995.00</v>
-      </c>
-    </row>
-    <row r="250">
+        <v>0</v>
+      </c>
+      <c r="E249" s="8">
+        <f t="shared" si="0"/>
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="15.75" customHeight="1">
       <c r="A250" s="13" t="s">
         <v>455</v>
       </c>
@@ -6109,17 +6430,22 @@
         <v>456</v>
       </c>
       <c r="C250" s="15">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="D250" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E250" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$150.00</v>
+        <v>0</v>
+      </c>
+      <c r="E250" s="8">
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>